--- a/git操作.xlsx
+++ b/git操作.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="817" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="817" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="importane" sheetId="11" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="gitconfig" sheetId="2" r:id="rId3"/>
     <sheet name="4种协议" sheetId="3" r:id="rId4"/>
-    <sheet name="远程仓库" sheetId="4" r:id="rId5"/>
-    <sheet name="标签" sheetId="5" r:id="rId6"/>
+    <sheet name="标签" sheetId="5" r:id="rId5"/>
+    <sheet name="远程仓库" sheetId="4" r:id="rId6"/>
     <sheet name="分支" sheetId="6" r:id="rId7"/>
     <sheet name="分支的管理" sheetId="7" r:id="rId8"/>
     <sheet name="远程分支" sheetId="8" r:id="rId9"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="464">
   <si>
     <t>git config --global user.name wangyaohua</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1496,10 +1496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建一个分支，并切换到该分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合并前</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1670,10 +1666,6 @@
   </si>
   <si>
     <t>$ git branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列出所有分支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1841,10 +1833,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 一次 Git 克隆会建立你自己的本地分支 master 和远程分支 origin/master，并且将它们都指向 origin 上的 master 分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推送</t>
   </si>
   <si>
@@ -1909,10 +1897,6 @@
   </si>
   <si>
     <t>提示添加了一个新的远程分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享自己本地的分支serverfix推送到远程仓库origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2297,6 +2281,90 @@
   </si>
   <si>
     <t>四种协议相当于4中不同的服务器安装模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将当前的本地的分支推送到远程仓库origin，并以serverfix命名分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆的是仓库（仓库中又包含分支）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程仓库就是别的机器上的一个仓库，可以包括个人工作机器上、远程共享服务器上的仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download objects and refs from another repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git remote的结果列表中移除，不会影响他人机器上的仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本地创建所有远程分支，以及与远程仓库中Head分支对应的本地分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送到远程仓库的指定分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以当前分支为基础新建一个分支，并切换到该分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列出所有分支，包括所有本地分支，以及head分支，以及已经存在对应本地分支的远程分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ git branch -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列出所有分支，包括所有本地分支，以及head分支，以及所有远程分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能在当前分支中删除自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一次 Git 克隆会建立你自己的本地分支 master 和远程分支 origin/head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push用于向远程仓库推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge，本地分支合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个时候就可以切换到某个远程分支，然后创建本地分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push -u origin featureB:featureBee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将远程仓库的分支featureBee作为本地仓库分支feantureB的上游，并push本地分支到上游分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次push、fetch的时候就会自动关联到featureBee分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-u --set-upstream的简写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5040,7 +5108,7 @@
   <sheetData>
     <row r="4" spans="2:2" ht="61.5">
       <c r="B4" s="49" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -5053,8 +5121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5068,339 +5136,382 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L89"/>
+  <dimension ref="A2:L94"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:11" ht="18">
       <c r="A2" s="42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="45" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15">
+      <c r="B7" s="46" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" t="s">
+      <c r="H7" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="K7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15">
+      <c r="B8" s="46" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" t="s">
+      <c r="K8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15">
+      <c r="B9" s="46" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="45" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15">
-      <c r="B7" s="46" t="s">
+    <row r="10" spans="1:11" ht="15">
+      <c r="B10" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="H7" s="48" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15">
-      <c r="B8" s="46" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="15">
+      <c r="B11" s="46" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
-      <c r="B9" s="46" t="s">
+    <row r="12" spans="1:11" ht="15">
+      <c r="B12" s="46" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
-      <c r="B10" s="46" t="s">
+    <row r="13" spans="1:11" ht="15">
+      <c r="B13" s="46" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
-      <c r="B11" s="46" t="s">
+    <row r="14" spans="1:11" ht="15">
+      <c r="B14" s="47" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15">
-      <c r="B12" s="46" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15">
-      <c r="B13" s="46" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15">
-      <c r="B14" s="47" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15">
       <c r="B18" s="46" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
       <c r="B19" s="46" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15">
       <c r="B20" s="46" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15">
       <c r="B21" s="46" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15">
       <c r="B22" s="46" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15">
       <c r="B23" s="46" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15">
       <c r="B24" s="47" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I24" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="14.25">
       <c r="B26" s="48" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="14.25">
       <c r="B27" s="48" t="s">
-        <v>393</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="B34" s="46" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15">
       <c r="B35" s="46" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15">
       <c r="B36" s="47" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="32" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25">
-      <c r="B41" s="48" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25">
-      <c r="B42" s="48" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" t="s">
-        <v>402</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="B37" s="47"/>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="B38" s="47"/>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="B39" s="47" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="B40" s="47"/>
+      <c r="C40" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="B41" s="47"/>
+      <c r="C41" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="C42" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="32" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25">
       <c r="B46" s="48" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25">
+      <c r="B47" s="48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="14.25">
+      <c r="B51" s="48" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="C52" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="14.25" thickBot="1"/>
+    <row r="55" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B55" s="43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B56" s="43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B57" s="44" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="14.25" thickBot="1"/>
+    <row r="60" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B60" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="I60" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B61" s="43" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="C47" t="s">
+    <row r="62" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B62" s="44" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="14.25" thickBot="1"/>
-    <row r="50" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B50" s="43" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B51" s="43" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B52" s="44" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="14.25" thickBot="1"/>
-    <row r="55" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B55" s="43" t="s">
-        <v>406</v>
-      </c>
-      <c r="I55" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B56" s="43" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B57" s="44" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="14.25" thickBot="1"/>
-    <row r="60" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B60" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="I60" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B61" s="44" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="14.25" thickBot="1"/>
+    <row r="64" spans="2:12" ht="14.25" thickBot="1">
+      <c r="L64" t="s">
+        <v>456</v>
+      </c>
+    </row>
     <row r="65" spans="1:12" ht="15.75" thickBot="1">
       <c r="B65" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="I65" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B66" s="44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="14.25" thickBot="1"/>
+    <row r="70" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B70" s="43" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B71" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="L71" s="48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B72" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="L72" s="48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B73" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="L73" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B74" s="44" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B66" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="L66" s="48" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B67" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="L67" s="48" t="s">
+      <c r="L74" s="48" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="14.25">
+      <c r="C76" s="48" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B68" s="43" t="s">
-        <v>415</v>
-      </c>
-      <c r="L68" t="s">
+    <row r="77" spans="1:12" ht="14.25">
+      <c r="C77" s="48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="14.25">
+      <c r="C78" s="48"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="32" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B69" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="L69" s="48" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="14.25">
-      <c r="C71" s="48" t="s">
+    <row r="81" spans="1:3" ht="14.25">
+      <c r="B81" s="48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25">
+      <c r="B82" s="48" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.25">
-      <c r="C72" s="48" t="s">
+    <row r="83" spans="1:3" ht="14.25">
+      <c r="C83" s="48" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14.25">
-      <c r="C73" s="48"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="32" t="s">
+    <row r="84" spans="1:3" ht="14.25">
+      <c r="C84" s="48" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.25">
-      <c r="B76" s="48" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="32" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.25">
-      <c r="B77" s="48" t="s">
+    <row r="88" spans="1:3" ht="14.25" thickBot="1"/>
+    <row r="89" spans="1:3" ht="15.75" thickBot="1">
+      <c r="C89" s="43" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.25">
-      <c r="C78" s="48" t="s">
+    <row r="90" spans="1:3" ht="15.75" thickBot="1">
+      <c r="C90" s="43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" thickBot="1">
+      <c r="C91" s="44" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.25">
-      <c r="C79" s="48" t="s">
+    <row r="93" spans="1:3" ht="14.25">
+      <c r="C93" s="48" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="32" t="s">
+    <row r="94" spans="1:3" ht="14.25">
+      <c r="C94" s="48" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.25" thickBot="1"/>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1">
-      <c r="C84" s="43" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1">
-      <c r="C85" s="43" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1">
-      <c r="C86" s="44" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="14.25">
-      <c r="C88" s="48" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.25">
-      <c r="C89" s="48" t="s">
-        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -5421,57 +5532,57 @@
   <sheetData>
     <row r="3" spans="2:2" ht="14.25">
       <c r="B3" s="48" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="14.25">
       <c r="B5" s="48" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" thickBot="1">
       <c r="A40" s="32" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1">
       <c r="B41" s="43" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1">
       <c r="B42" s="43" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1">
       <c r="B43" s="43" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1">
       <c r="B44" s="44" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="B46" s="50" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="B47" s="50" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
       <c r="B48" s="50" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="11:11">
       <c r="K51" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -5499,8 +5610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H122"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6197,7 +6308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -6228,8 +6339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6244,7 +6355,7 @@
   <sheetData>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="3:7">
@@ -6331,303 +6442,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="23.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27">
-      <c r="B7" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" thickBot="1">
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B10" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1">
-      <c r="B11" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B12" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B13" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B14" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B15" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B16" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B17" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B18" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B19" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B20" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B21" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" thickBot="1">
-      <c r="B24" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B25" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B26" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B27" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B28" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B29" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B30" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B31" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B32" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="C43" s="29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" s="27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.25" thickBot="1">
-      <c r="B50" s="27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1">
-      <c r="B51" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1">
-      <c r="B52" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1">
-      <c r="B53" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="14.25" thickBot="1">
-      <c r="B55" s="27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1">
-      <c r="B56" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1">
-      <c r="B57" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="96" verticalDpi="96" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C52"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6857,12 +6675,328 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="28"/>
+      <c r="C4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27">
+      <c r="B8" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" thickBot="1">
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="B11" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1">
+      <c r="B12" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="B13" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+      <c r="B14" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+      <c r="B15" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+      <c r="B16" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B17" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B18" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B19" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B20" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B21" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B22" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" thickBot="1">
+      <c r="B25" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B26" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B27" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B28" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B29" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B30" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B31" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B32" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B33" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="C36" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>449</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" thickBot="1">
+      <c r="B52" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B53" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B54" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B55" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" thickBot="1">
+      <c r="B57" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B58" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B59" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="96" verticalDpi="96" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O171"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7181,7 +7315,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="C64" t="s">
-        <v>316</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="2:14">
@@ -7244,114 +7378,114 @@
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="14.25" thickBot="1">
       <c r="B103" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C103" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="15.75" thickBot="1">
       <c r="C104" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="105" spans="2:8" ht="15.75" thickBot="1">
       <c r="C105" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="15.75" thickBot="1">
       <c r="C106" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="16.5" thickBot="1">
       <c r="C107" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="15.75" thickBot="1">
       <c r="C108" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="15.75" thickBot="1">
       <c r="C109" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="111" spans="2:8">
       <c r="B111" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="B130" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="C132" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="18.75">
       <c r="A135" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="B137" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" thickBot="1"/>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
       <c r="B139" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
       <c r="B140" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="16.5" thickBot="1">
       <c r="B141" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" thickBot="1">
       <c r="B142" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="B144" s="38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="2:2" ht="14.25" thickBot="1"/>
@@ -7367,12 +7501,12 @@
     </row>
     <row r="151" spans="2:2" ht="15.75" thickBot="1">
       <c r="B151" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="2:2" ht="15.75" thickBot="1">
       <c r="B152" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="2:2" ht="14.25" thickBot="1">
@@ -7380,12 +7514,12 @@
     </row>
     <row r="154" spans="2:2" ht="15.75" thickBot="1">
       <c r="B154" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="2:2" ht="15.75" thickBot="1">
       <c r="B155" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="156" spans="2:2" ht="14.25" thickBot="1">
@@ -7393,7 +7527,7 @@
     </row>
     <row r="157" spans="2:2" ht="15.75" thickBot="1">
       <c r="B157" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="158" spans="2:2" ht="14.25" thickBot="1">
@@ -7401,56 +7535,56 @@
     </row>
     <row r="159" spans="2:2" ht="15.75" thickBot="1">
       <c r="B159" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="161" spans="2:7">
       <c r="B161" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="162" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="163" spans="2:7" ht="15.75" thickBot="1">
       <c r="B163" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="164" spans="2:7" ht="15.75" thickBot="1">
       <c r="B164" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="165" spans="2:7" ht="15.75" thickBot="1">
       <c r="B165" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="166" spans="2:7" ht="15.75" thickBot="1">
       <c r="B166" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="167" spans="2:7" ht="15.75" thickBot="1">
       <c r="B167" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="169" spans="2:7" ht="15">
       <c r="B169" s="40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G169" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="170" spans="2:7">
       <c r="C170" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="2:7">
       <c r="C171" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -7495,10 +7629,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7508,39 +7642,52 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="D3" t="s">
-        <v>359</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="D5" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D6" t="s">
-        <v>364</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -7554,40 +7701,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="14.25">
       <c r="C9" s="41" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>369</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
